--- a/biology/Zoologie/Le_Chihuahua_de_Beverly_Hills_3/Le_Chihuahua_de_Beverly_Hills_3.xlsx
+++ b/biology/Zoologie/Le_Chihuahua_de_Beverly_Hills_3/Le_Chihuahua_de_Beverly_Hills_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chihuahua de Beverly Hills 3 (Beverly Hills Chihuahua 3: Viva la Fiesta!), est un film américain pour enfants à partir de 6 ans. Réalisé par Lev L. Spiro, et mettant en scène George Lopez, Odette Yustman et Zachary Gordon, le film se concentre sur Papi et Chloé, maintenant marié, en compagnie de leurs 5 chiots. Le film a été distribué par Walt Disney Home Entertainment à partir du 18 septembre 2012 aux États-Unis en DVD et Blu-Ray. C'est la suite de Le Chihuahua de Beverly Hills.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,8 +581,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix des animaux
-George Lopez (VQ : Sylvain Hétu) : Papi
+          <t>Voix des animaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>George Lopez (VQ : Sylvain Hétu) : Papi
 Odette Yustman (VQ : Aline Pinsonneault) : Chloé
 Zachary Gordon (VQ : Vassili Schneider) : Papi Junior
 Emily Osment (VQ : Gabrielle Thouin) : Pep
@@ -578,9 +599,43 @@
 Miguel Ferrer : Delgado
 Phill Lewis : M. McKibble
 Bridgit Mendler (VQ : Isabelle Leyrolles) : Marie Appoline Bouvier
-Loretta Devine (VQ : Viviane Pacal) : Delta
-Les humains
-Marcus Coloma (VF : Emmanuel Garijo ; VQ : Patrice Dubois) : Sam Cortez
+Loretta Devine (VQ : Viviane Pacal) : Delta</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Chihuahua_de_Beverly_Hills_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Chihuahua_de_Beverly_Hills_3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les humains</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Marcus Coloma (VF : Emmanuel Garijo ; VQ : Patrice Dubois) : Sam Cortez
 Erin Cahill (VF : Laura Blanc ; VQ : Julie Burroughs) : Rachel Ashe
 Susan Blakely (VQ : Madeleine Arsenault) : tante Vivian
 Elaine Hendrix (VQ : Élise Bertrand) : Colleen Mansfield
